--- a/public/excel/SAMPLE_PRICE_JOHN_MAR12.xlsx
+++ b/public/excel/SAMPLE_PRICE_JOHN_MAR12.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1574694B-4074-42D9-98C4-F4D65AE62AC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
   <definedNames>
     <definedName name="rate" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -556,24 +550,6 @@
     <t>دفلوبر (أزرق و أحمر و أصفر) 120.000 نسخة</t>
   </si>
   <si>
-    <t>سعر القطعة بدون الضريبة "الحالي"</t>
-  </si>
-  <si>
-    <t>العمر الافتراضي للقطعة</t>
-  </si>
-  <si>
-    <t>وصف القطعة</t>
-  </si>
-  <si>
-    <t>اسم القطعة</t>
-  </si>
-  <si>
-    <t>كود القطعة</t>
-  </si>
-  <si>
-    <t>آلات الطباعة المتوافقة مع هذة القطعة</t>
-  </si>
-  <si>
     <t>AR-163, AR-206, 
 AR-M160, AR-M205</t>
   </si>
@@ -632,18 +608,36 @@
   <si>
     <t>MX-C300, 
 MX-C300F</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>compatable_machine</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>price_without</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,7 +793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -834,7 +828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1011,52 +1005,52 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.6328125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.2265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="63.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.85" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="14.85" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1090,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1110,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="14.85" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1130,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" ht="14.85" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1156,7 +1150,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1170,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" ht="14.85" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1190,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" ht="14.85" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1210,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1236,9 +1230,9 @@
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" ht="14.85" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -1256,9 +1250,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" ht="14.85" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -1276,9 +1270,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" ht="15.6" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -1296,9 +1290,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" ht="14.85" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -1316,9 +1310,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" ht="14.85" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -1336,9 +1330,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -1356,9 +1350,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:6" ht="14.85" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -1376,9 +1370,9 @@
         <v>990</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
@@ -1396,9 +1390,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
@@ -1416,9 +1410,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:6" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
@@ -1436,9 +1430,9 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:6" ht="14.85" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
@@ -1451,9 +1445,9 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:6" ht="14.85" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -1471,9 +1465,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:6" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
@@ -1491,9 +1485,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:6" ht="14.85" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
@@ -1511,9 +1505,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:6" ht="14.85" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>32</v>
@@ -1531,9 +1525,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:6" ht="14.85" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
@@ -1551,9 +1545,9 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:6" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>36</v>
@@ -1571,9 +1565,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:6" ht="14.85" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>38</v>
@@ -1591,9 +1585,9 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:6" ht="14.85" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>39</v>
@@ -1611,9 +1605,9 @@
         <v>792</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:6" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>40</v>
@@ -1631,9 +1625,9 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:6" ht="14.85" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>41</v>
@@ -1651,9 +1645,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:6" ht="14.85" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>42</v>
@@ -1671,9 +1665,9 @@
         <v>980</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:6" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>43</v>
@@ -1691,9 +1685,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:6" ht="14.85" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
@@ -1711,9 +1705,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:6" ht="14.85" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>42</v>
@@ -1731,9 +1725,9 @@
         <v>980</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:6" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
@@ -1751,9 +1745,9 @@
         <v>980</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:6" ht="14.85" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>45</v>
@@ -1771,9 +1765,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:6" ht="14.85" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>34</v>
@@ -1791,9 +1785,9 @@
         <v>980</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
@@ -1811,9 +1805,9 @@
         <v>980</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:6" ht="14.85" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>46</v>
@@ -1831,9 +1825,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:6" ht="14.85" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>34</v>
@@ -1851,9 +1845,9 @@
         <v>980</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:6" ht="15.6" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>36</v>
@@ -1871,9 +1865,9 @@
         <v>980</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:6" ht="14.85" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>47</v>
@@ -1891,9 +1885,9 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:6" ht="14.85" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>48</v>
@@ -1911,9 +1905,9 @@
         <v>764</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:6" ht="15.6" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>49</v>
@@ -1931,9 +1925,9 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:6" ht="14.85" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
@@ -1951,9 +1945,9 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:6" ht="14.85" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>51</v>
@@ -1971,9 +1965,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:6" ht="15.6" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
@@ -1991,9 +1985,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:6" ht="14.85" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>53</v>
@@ -2011,9 +2005,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:6" ht="14.85" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>54</v>
@@ -2031,9 +2025,9 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:6" ht="15.6" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>55</v>
@@ -2051,9 +2045,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:6" ht="14.85" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>56</v>
@@ -2071,9 +2065,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:6" ht="14.85" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>57</v>
@@ -2091,9 +2085,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:6" ht="15.6" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>59</v>
@@ -2111,9 +2105,9 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:6" ht="14.85" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>60</v>
@@ -2131,9 +2125,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:6" ht="14.85" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>61</v>
@@ -2151,9 +2145,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:6" ht="15.6" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>59</v>
@@ -2171,9 +2165,9 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:6" ht="14.85" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>63</v>
@@ -2191,9 +2185,9 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:6" ht="14.85" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>64</v>
@@ -2211,9 +2205,9 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:6" ht="15.6" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>65</v>
@@ -2231,7 +2225,7 @@
         <v>8185</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:6" ht="15.6" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>66</v>
       </c>
@@ -2251,7 +2245,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:6" ht="15.6" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>66</v>
       </c>
@@ -2271,7 +2265,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:6" ht="15.6" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>66</v>
       </c>
@@ -2291,7 +2285,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:6" ht="14.85" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>66</v>
       </c>
@@ -2311,7 +2305,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:6" ht="14.85" customHeight="1">
       <c r="A65" s="9" t="s">
         <v>66</v>
       </c>
@@ -2331,7 +2325,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:6" ht="14.85" customHeight="1">
       <c r="A66" s="9" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2345,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:6" ht="15.6" customHeight="1">
       <c r="A67" s="9" t="s">
         <v>66</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:6" ht="15.6" customHeight="1">
       <c r="A68" s="9" t="s">
         <v>66</v>
       </c>
@@ -2391,7 +2385,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:6" ht="15.6" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>83</v>
       </c>
@@ -2411,7 +2405,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:6" ht="15.6" customHeight="1">
       <c r="A70" s="9" t="s">
         <v>83</v>
       </c>
@@ -2431,7 +2425,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:6" ht="15.6" customHeight="1">
       <c r="A71" s="9" t="s">
         <v>83</v>
       </c>
@@ -2451,7 +2445,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:6" ht="14.85" customHeight="1">
       <c r="A72" s="9" t="s">
         <v>83</v>
       </c>
@@ -2471,7 +2465,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:6" ht="15.6" customHeight="1">
       <c r="A73" s="9" t="s">
         <v>83</v>
       </c>
@@ -2491,7 +2485,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:6" ht="15.6" customHeight="1">
       <c r="A74" s="9" t="s">
         <v>83</v>
       </c>
@@ -2511,7 +2505,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:6" ht="14.85" customHeight="1">
       <c r="A75" s="9" t="s">
         <v>83</v>
       </c>
@@ -2531,7 +2525,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:6" ht="15.6" customHeight="1">
       <c r="A76" s="9" t="s">
         <v>83</v>
       </c>
@@ -2551,9 +2545,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:6" ht="15.6" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>101</v>
@@ -2571,9 +2565,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:6" ht="15.6" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>102</v>
@@ -2591,9 +2585,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:6" ht="15.6" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>104</v>
@@ -2611,9 +2605,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:6" ht="14.85" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>106</v>
@@ -2631,9 +2625,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:6" ht="15.6" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>108</v>
@@ -2651,9 +2645,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:6" ht="15.6" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>109</v>
@@ -2671,9 +2665,9 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:6" ht="14.85" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>110</v>
@@ -2691,9 +2685,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:6" ht="15.6" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>111</v>
@@ -2711,7 +2705,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:6" ht="15.6" customHeight="1">
       <c r="A85" s="9" t="s">
         <v>112</v>
       </c>
@@ -2731,7 +2725,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:6" ht="15.6" customHeight="1">
       <c r="A86" s="9" t="s">
         <v>112</v>
       </c>
@@ -2751,7 +2745,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:6" ht="15.6" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>112</v>
       </c>
@@ -2771,7 +2765,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:6" ht="14.85" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>112</v>
       </c>
@@ -2791,7 +2785,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:6" ht="14.85" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>112</v>
       </c>
@@ -2811,7 +2805,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:6" ht="14.85" customHeight="1">
       <c r="A90" s="9" t="s">
         <v>112</v>
       </c>
@@ -2831,7 +2825,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:6" ht="15.6" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>112</v>
       </c>
@@ -2851,7 +2845,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:6" ht="15.6" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>112</v>
       </c>
@@ -2871,7 +2865,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:6" ht="15.6" customHeight="1">
       <c r="A93" s="9" t="s">
         <v>112</v>
       </c>
@@ -2891,7 +2885,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:6" ht="15.6" customHeight="1">
       <c r="A94" s="9" t="s">
         <v>112</v>
       </c>
@@ -2911,7 +2905,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:6" ht="15.6" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>127</v>
       </c>
@@ -2931,7 +2925,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:6" ht="15.6" customHeight="1">
       <c r="A96" s="9" t="s">
         <v>127</v>
       </c>
@@ -2951,7 +2945,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:6" ht="15.6" customHeight="1">
       <c r="A97" s="9" t="s">
         <v>127</v>
       </c>
@@ -2971,7 +2965,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:6" ht="14.85" customHeight="1">
       <c r="A98" s="9" t="s">
         <v>127</v>
       </c>
@@ -2991,7 +2985,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:6" ht="14.85" customHeight="1">
       <c r="A99" s="9" t="s">
         <v>127</v>
       </c>
@@ -3011,7 +3005,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:6" ht="14.85" customHeight="1">
       <c r="A100" s="9" t="s">
         <v>127</v>
       </c>
@@ -3031,7 +3025,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:6" ht="15.6" customHeight="1">
       <c r="A101" s="9" t="s">
         <v>127</v>
       </c>
@@ -3051,7 +3045,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:6" ht="15.6" customHeight="1">
       <c r="A102" s="9" t="s">
         <v>127</v>
       </c>
@@ -3071,7 +3065,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:6" ht="15.6" customHeight="1">
       <c r="A103" s="9" t="s">
         <v>127</v>
       </c>
@@ -3091,7 +3085,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:6" ht="15.6" customHeight="1">
       <c r="A104" s="9" t="s">
         <v>127</v>
       </c>
@@ -3111,7 +3105,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:6" ht="15.6" customHeight="1">
       <c r="A105" s="9" t="s">
         <v>135</v>
       </c>
@@ -3131,7 +3125,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:6" ht="15.6" customHeight="1">
       <c r="A106" s="9" t="s">
         <v>135</v>
       </c>
@@ -3151,7 +3145,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:6" ht="15.6" customHeight="1">
       <c r="A107" s="9" t="s">
         <v>135</v>
       </c>
@@ -3171,7 +3165,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:6" ht="14.85" customHeight="1">
       <c r="A108" s="9" t="s">
         <v>135</v>
       </c>
@@ -3191,7 +3185,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:6" ht="14.85" customHeight="1">
       <c r="A109" s="9" t="s">
         <v>135</v>
       </c>
@@ -3211,7 +3205,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:6" ht="14.85" customHeight="1">
       <c r="A110" s="9" t="s">
         <v>135</v>
       </c>
@@ -3231,7 +3225,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:6" ht="15.6" customHeight="1">
       <c r="A111" s="9" t="s">
         <v>135</v>
       </c>
@@ -3251,7 +3245,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:6" ht="15.6" customHeight="1">
       <c r="A112" s="9" t="s">
         <v>135</v>
       </c>
@@ -3271,7 +3265,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:6" ht="15.6" customHeight="1">
       <c r="A113" s="9" t="s">
         <v>135</v>
       </c>
@@ -3291,7 +3285,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:6" ht="15.6" customHeight="1">
       <c r="A114" s="9" t="s">
         <v>135</v>
       </c>
@@ -3311,9 +3305,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:6" ht="15.6" customHeight="1">
       <c r="A115" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>144</v>
@@ -3331,9 +3325,9 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:6" ht="15.6" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>146</v>
@@ -3351,9 +3345,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:6" ht="15.6" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>148</v>
@@ -3369,9 +3363,9 @@
       </c>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:6" ht="15.6" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>150</v>
@@ -3387,9 +3381,9 @@
       </c>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:6" ht="15.6" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>152</v>
@@ -3405,9 +3399,9 @@
       </c>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:6" ht="15.6" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>148</v>
@@ -3425,9 +3419,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:6" ht="14.85" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>150</v>
@@ -3445,9 +3439,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:6" ht="15.6" customHeight="1">
       <c r="A122" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>155</v>
@@ -3465,9 +3459,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:6" ht="15.6" customHeight="1">
       <c r="A123" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>157</v>
@@ -3485,9 +3479,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:6" ht="15.6" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>157</v>
@@ -3505,9 +3499,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:6" ht="15.6" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>157</v>
@@ -3525,9 +3519,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:6" ht="14.85" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>158</v>
@@ -3545,9 +3539,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:6" ht="14.85" customHeight="1">
       <c r="A127" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>160</v>
@@ -3565,9 +3559,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:6" ht="14.85" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>162</v>
@@ -3585,9 +3579,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:6" ht="15.6" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>164</v>
@@ -3605,7 +3599,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:6" ht="15.6" customHeight="1">
       <c r="A130" s="9" t="s">
         <v>166</v>
       </c>
@@ -3625,7 +3619,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:6" ht="15.6" customHeight="1">
       <c r="A131" s="9" t="s">
         <v>166</v>
       </c>
@@ -3645,7 +3639,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:6" ht="15.6" customHeight="1">
       <c r="A132" s="9" t="s">
         <v>166</v>
       </c>
@@ -3665,7 +3659,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:6" ht="14.85" customHeight="1">
       <c r="A133" s="9" t="s">
         <v>166</v>
       </c>
@@ -3685,7 +3679,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:6" ht="15.6" customHeight="1">
       <c r="A134" s="9" t="s">
         <v>166</v>
       </c>
@@ -3705,7 +3699,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:6" ht="15.6" customHeight="1">
       <c r="A135" s="9" t="s">
         <v>166</v>
       </c>
@@ -3725,7 +3719,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:6" ht="14.85" customHeight="1">
       <c r="A136" s="9" t="s">
         <v>166</v>
       </c>
@@ -3745,7 +3739,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:6" ht="15.6" customHeight="1">
       <c r="A137" s="9" t="s">
         <v>166</v>
       </c>
